--- a/BackTest/2020-01-15 BackTest XEM.xlsx
+++ b/BackTest/2020-01-15 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1798,6 +1841,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1839,6 +1883,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1880,6 +1925,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1919,6 +1965,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1960,6 +2007,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2001,6 +2049,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,6 +2089,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2081,6 +2131,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2120,6 +2171,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2159,6 +2211,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2198,6 +2251,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2237,6 +2291,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2278,6 +2333,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2319,6 +2375,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2358,6 +2415,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2397,6 +2455,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2436,6 +2495,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2475,6 +2535,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2516,6 +2577,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2555,6 +2617,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2594,6 +2657,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2633,6 +2697,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2672,6 +2737,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2711,6 +2777,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2750,6 +2817,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2789,6 +2857,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2816,17 +2885,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>1.028556034482759</v>
       </c>
     </row>
     <row r="67">
@@ -2855,18 +2925,15 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2894,18 +2961,15 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2937,12 +3001,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2978,6 +3041,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3013,6 +3077,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3048,6 +3113,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3083,6 +3149,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3110,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3118,6 +3185,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3153,6 +3221,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3188,6 +3257,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3215,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3223,6 +3293,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3258,6 +3329,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3293,6 +3365,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3328,6 +3401,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3363,6 +3437,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3398,6 +3473,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3433,6 +3509,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3468,6 +3545,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3503,6 +3581,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3538,6 +3617,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3573,6 +3653,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3600,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3608,6 +3689,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3635,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3643,6 +3725,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3678,6 +3761,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3713,6 +3797,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3748,6 +3833,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3783,6 +3869,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3818,6 +3905,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3853,6 +3941,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3888,6 +3977,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3923,6 +4013,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3958,6 +4049,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3993,6 +4085,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4028,6 +4121,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4063,6 +4157,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4098,6 +4193,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4133,6 +4229,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4168,6 +4265,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4203,6 +4301,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4238,6 +4337,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4273,6 +4373,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4308,6 +4409,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4343,6 +4445,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest XEM.xlsx
+++ b/BackTest/2020-01-15 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.84</v>
+        <v>37.36</v>
       </c>
       <c r="C2" t="n">
-        <v>37.84</v>
+        <v>37.36</v>
       </c>
       <c r="D2" t="n">
-        <v>37.85</v>
+        <v>37.36</v>
       </c>
       <c r="E2" t="n">
-        <v>37.84</v>
+        <v>37.36</v>
       </c>
       <c r="F2" t="n">
-        <v>15771189.8884</v>
+        <v>1390</v>
       </c>
       <c r="G2" t="n">
-        <v>16013998.35591533</v>
+        <v>-161499.7982085</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.84</v>
+        <v>37.51</v>
       </c>
       <c r="C3" t="n">
-        <v>37.84</v>
+        <v>37.51</v>
       </c>
       <c r="D3" t="n">
-        <v>37.84</v>
+        <v>37.51</v>
       </c>
       <c r="E3" t="n">
-        <v>37.84</v>
+        <v>37.51</v>
       </c>
       <c r="F3" t="n">
-        <v>1180.2032</v>
+        <v>1390</v>
       </c>
       <c r="G3" t="n">
-        <v>16013998.35591533</v>
+        <v>-160109.7982085</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>37.36</v>
+      </c>
+      <c r="K3" t="n">
+        <v>37.36</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37.84</v>
+        <v>37.89</v>
       </c>
       <c r="C4" t="n">
-        <v>37.12</v>
+        <v>37.9</v>
       </c>
       <c r="D4" t="n">
-        <v>37.84</v>
+        <v>37.9</v>
       </c>
       <c r="E4" t="n">
-        <v>37.12</v>
+        <v>37.89</v>
       </c>
       <c r="F4" t="n">
-        <v>180043.0916</v>
+        <v>4686.822</v>
       </c>
       <c r="G4" t="n">
-        <v>15833955.26431533</v>
+        <v>-155422.9762085</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>37.51</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37.36</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37.69</v>
+        <v>37.9</v>
       </c>
       <c r="C5" t="n">
-        <v>37.69</v>
+        <v>38.04</v>
       </c>
       <c r="D5" t="n">
-        <v>37.69</v>
+        <v>38.04</v>
       </c>
       <c r="E5" t="n">
-        <v>37.69</v>
+        <v>37.9</v>
       </c>
       <c r="F5" t="n">
-        <v>345.9153</v>
+        <v>16404.9292</v>
       </c>
       <c r="G5" t="n">
-        <v>15834301.17961533</v>
+        <v>-139018.0470085</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -570,8 +582,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>37.36</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37.83</v>
+        <v>38.11</v>
       </c>
       <c r="C6" t="n">
-        <v>37.83</v>
+        <v>38.35</v>
       </c>
       <c r="D6" t="n">
-        <v>37.83</v>
+        <v>38.35</v>
       </c>
       <c r="E6" t="n">
-        <v>37.83</v>
+        <v>38.11</v>
       </c>
       <c r="F6" t="n">
-        <v>1442.5608</v>
+        <v>30374.22992383</v>
       </c>
       <c r="G6" t="n">
-        <v>15835743.74041533</v>
+        <v>-108643.81708467</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +636,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37.55</v>
+        <v>38.1</v>
       </c>
       <c r="C7" t="n">
-        <v>37.55</v>
+        <v>38.1</v>
       </c>
       <c r="D7" t="n">
-        <v>37.55</v>
+        <v>38.1</v>
       </c>
       <c r="E7" t="n">
-        <v>37.55</v>
+        <v>38.1</v>
       </c>
       <c r="F7" t="n">
-        <v>956.6361000000001</v>
+        <v>639.716</v>
       </c>
       <c r="G7" t="n">
-        <v>15834787.10431533</v>
+        <v>-109283.53308467</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +672,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="C8" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="D8" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="E8" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="F8" t="n">
-        <v>1697.648</v>
+        <v>377.8315</v>
       </c>
       <c r="G8" t="n">
-        <v>15836484.75231533</v>
+        <v>-109283.53308467</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.71</v>
+        <v>38.1</v>
       </c>
       <c r="C9" t="n">
-        <v>37.71</v>
+        <v>38.1</v>
       </c>
       <c r="D9" t="n">
-        <v>37.71</v>
+        <v>38.1</v>
       </c>
       <c r="E9" t="n">
-        <v>37.71</v>
+        <v>38.1</v>
       </c>
       <c r="F9" t="n">
-        <v>4231.0912</v>
+        <v>211.2323</v>
       </c>
       <c r="G9" t="n">
-        <v>15832253.66111533</v>
+        <v>-109283.53308467</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +744,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>37.89</v>
+        <v>38.08</v>
       </c>
       <c r="C10" t="n">
-        <v>37.89</v>
+        <v>38.08</v>
       </c>
       <c r="D10" t="n">
-        <v>37.89</v>
+        <v>38.08</v>
       </c>
       <c r="E10" t="n">
-        <v>37.89</v>
+        <v>38.08</v>
       </c>
       <c r="F10" t="n">
-        <v>117.28688308</v>
+        <v>42028.5499</v>
       </c>
       <c r="G10" t="n">
-        <v>15832370.94799841</v>
+        <v>-151312.0829846699</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +780,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>37.9</v>
+        <v>38.09</v>
       </c>
       <c r="C11" t="n">
-        <v>37.99</v>
+        <v>38.08</v>
       </c>
       <c r="D11" t="n">
-        <v>37.99</v>
+        <v>38.09</v>
       </c>
       <c r="E11" t="n">
-        <v>37.9</v>
+        <v>38.08</v>
       </c>
       <c r="F11" t="n">
-        <v>13812.9817</v>
+        <v>5873.5711817</v>
       </c>
       <c r="G11" t="n">
-        <v>15846183.92969841</v>
+        <v>-151312.0829846699</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +816,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>37.99</v>
+        <v>37.73</v>
       </c>
       <c r="C12" t="n">
-        <v>37.99</v>
+        <v>37.73</v>
       </c>
       <c r="D12" t="n">
-        <v>37.99</v>
+        <v>37.73</v>
       </c>
       <c r="E12" t="n">
-        <v>37.99</v>
+        <v>37.73</v>
       </c>
       <c r="F12" t="n">
-        <v>9813.917100000001</v>
+        <v>911.917</v>
       </c>
       <c r="G12" t="n">
-        <v>15846183.92969841</v>
+        <v>-152223.9999846699</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +852,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="C13" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="D13" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="E13" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="F13" t="n">
-        <v>9330.617099999999</v>
+        <v>761.648</v>
       </c>
       <c r="G13" t="n">
-        <v>15855514.54679841</v>
+        <v>-152985.6479846699</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +888,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>38.18</v>
+        <v>37.75</v>
       </c>
       <c r="C14" t="n">
-        <v>38.18</v>
+        <v>37.75</v>
       </c>
       <c r="D14" t="n">
-        <v>38.18</v>
+        <v>37.75</v>
       </c>
       <c r="E14" t="n">
-        <v>38.18</v>
+        <v>37.75</v>
       </c>
       <c r="F14" t="n">
-        <v>981.3694</v>
+        <v>14904.9657</v>
       </c>
       <c r="G14" t="n">
-        <v>15856495.91619841</v>
+        <v>-138080.6822846699</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +924,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>38.17</v>
+        <v>37.77</v>
       </c>
       <c r="C15" t="n">
-        <v>38.17</v>
+        <v>37.77</v>
       </c>
       <c r="D15" t="n">
-        <v>38.17</v>
+        <v>37.77</v>
       </c>
       <c r="E15" t="n">
-        <v>38.17</v>
+        <v>37.77</v>
       </c>
       <c r="F15" t="n">
-        <v>16989</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>15839506.91619841</v>
+        <v>-138060.6822846699</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +960,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>38</v>
+        <v>37.85</v>
       </c>
       <c r="C16" t="n">
-        <v>38</v>
+        <v>37.85</v>
       </c>
       <c r="D16" t="n">
-        <v>38</v>
+        <v>37.85</v>
       </c>
       <c r="E16" t="n">
-        <v>38</v>
+        <v>37.85</v>
       </c>
       <c r="F16" t="n">
-        <v>540.45</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>15838966.46619841</v>
+        <v>-138040.6822846699</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +996,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>38.01</v>
+        <v>37.97</v>
       </c>
       <c r="C17" t="n">
-        <v>37.9</v>
+        <v>37.97</v>
       </c>
       <c r="D17" t="n">
-        <v>38.01</v>
+        <v>37.97</v>
       </c>
       <c r="E17" t="n">
-        <v>37.9</v>
+        <v>37.97</v>
       </c>
       <c r="F17" t="n">
-        <v>5069.9808</v>
+        <v>302.3435</v>
       </c>
       <c r="G17" t="n">
-        <v>15833896.48539841</v>
+        <v>-137738.3387846699</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1032,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>38</v>
+        <v>38.01</v>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>38.01</v>
       </c>
       <c r="D18" t="n">
-        <v>38</v>
+        <v>38.01</v>
       </c>
       <c r="E18" t="n">
-        <v>38</v>
+        <v>38.01</v>
       </c>
       <c r="F18" t="n">
-        <v>211.3976</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>15834107.88299841</v>
+        <v>-137698.3387846699</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1068,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>38.08</v>
+        <v>38.01</v>
       </c>
       <c r="C19" t="n">
-        <v>38.09</v>
+        <v>38.01</v>
       </c>
       <c r="D19" t="n">
-        <v>38.09</v>
+        <v>38.01</v>
       </c>
       <c r="E19" t="n">
-        <v>38.08</v>
+        <v>38.01</v>
       </c>
       <c r="F19" t="n">
-        <v>21265.0598</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>15855372.94279841</v>
+        <v>-137698.3387846699</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1104,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>38</v>
+        <v>38.01</v>
       </c>
       <c r="C20" t="n">
-        <v>38</v>
+        <v>38.01</v>
       </c>
       <c r="D20" t="n">
-        <v>38</v>
+        <v>38.01</v>
       </c>
       <c r="E20" t="n">
-        <v>38</v>
+        <v>38.01</v>
       </c>
       <c r="F20" t="n">
-        <v>721.173</v>
+        <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>15854651.76979841</v>
+        <v>-137698.3387846699</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1140,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>38</v>
+        <v>38.07</v>
       </c>
       <c r="C21" t="n">
-        <v>38</v>
+        <v>38.07</v>
       </c>
       <c r="D21" t="n">
-        <v>38</v>
+        <v>38.07</v>
       </c>
       <c r="E21" t="n">
-        <v>38</v>
+        <v>38.07</v>
       </c>
       <c r="F21" t="n">
-        <v>4173.702</v>
+        <v>4658.1754</v>
       </c>
       <c r="G21" t="n">
-        <v>15854651.76979841</v>
+        <v>-133040.1633846699</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1176,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>38</v>
+        <v>37.81</v>
       </c>
       <c r="C22" t="n">
-        <v>38</v>
+        <v>37.81</v>
       </c>
       <c r="D22" t="n">
-        <v>38</v>
+        <v>37.81</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>37.81</v>
       </c>
       <c r="F22" t="n">
-        <v>3214</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>15854651.76979841</v>
+        <v>-133080.1633846699</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1212,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="C23" t="n">
-        <v>38</v>
+        <v>38.46</v>
       </c>
       <c r="D23" t="n">
-        <v>38</v>
+        <v>38.46</v>
       </c>
       <c r="E23" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="F23" t="n">
-        <v>3300</v>
+        <v>200040</v>
       </c>
       <c r="G23" t="n">
-        <v>15854651.76979841</v>
+        <v>66959.83661533007</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>38</v>
+        <v>37.92</v>
       </c>
       <c r="C24" t="n">
-        <v>38</v>
+        <v>37.92</v>
       </c>
       <c r="D24" t="n">
-        <v>38</v>
+        <v>37.92</v>
       </c>
       <c r="E24" t="n">
-        <v>38</v>
+        <v>37.92</v>
       </c>
       <c r="F24" t="n">
-        <v>454.6239</v>
+        <v>5673</v>
       </c>
       <c r="G24" t="n">
-        <v>15854651.76979841</v>
+        <v>61286.83661533007</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1284,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="C25" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="D25" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="E25" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="F25" t="n">
-        <v>3214</v>
+        <v>3509.0085</v>
       </c>
       <c r="G25" t="n">
-        <v>15854651.76979841</v>
+        <v>57777.82811533008</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1320,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>38</v>
+        <v>37.83</v>
       </c>
       <c r="C26" t="n">
-        <v>38</v>
+        <v>37.83</v>
       </c>
       <c r="D26" t="n">
-        <v>38</v>
+        <v>37.83</v>
       </c>
       <c r="E26" t="n">
-        <v>38</v>
+        <v>37.83</v>
       </c>
       <c r="F26" t="n">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="G26" t="n">
-        <v>15854651.76979841</v>
+        <v>54562.82811533008</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1356,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="C27" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="D27" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="E27" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="F27" t="n">
-        <v>3300</v>
+        <v>832.6394</v>
       </c>
       <c r="G27" t="n">
-        <v>15854651.76979841</v>
+        <v>55395.46751533008</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1392,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>38</v>
+        <v>37.78</v>
       </c>
       <c r="C28" t="n">
-        <v>38</v>
+        <v>37.78</v>
       </c>
       <c r="D28" t="n">
-        <v>38</v>
+        <v>37.78</v>
       </c>
       <c r="E28" t="n">
-        <v>38</v>
+        <v>37.78</v>
       </c>
       <c r="F28" t="n">
-        <v>5330</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>15854651.76979841</v>
+        <v>55375.46751533008</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1428,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="C29" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="D29" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="E29" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="F29" t="n">
-        <v>322</v>
+        <v>190000</v>
       </c>
       <c r="G29" t="n">
-        <v>15854651.76979841</v>
+        <v>245375.4675153301</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1464,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>38</v>
+        <v>37.78</v>
       </c>
       <c r="C30" t="n">
-        <v>38</v>
+        <v>37.78</v>
       </c>
       <c r="D30" t="n">
-        <v>38</v>
+        <v>37.78</v>
       </c>
       <c r="E30" t="n">
-        <v>38</v>
+        <v>37.78</v>
       </c>
       <c r="F30" t="n">
-        <v>5786.0679</v>
+        <v>2567</v>
       </c>
       <c r="G30" t="n">
-        <v>15854651.76979841</v>
+        <v>242808.4675153301</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1500,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38</v>
+        <v>37.84</v>
       </c>
       <c r="C31" t="n">
-        <v>38</v>
+        <v>37.84</v>
       </c>
       <c r="D31" t="n">
-        <v>38</v>
+        <v>37.85</v>
       </c>
       <c r="E31" t="n">
-        <v>38</v>
+        <v>37.84</v>
       </c>
       <c r="F31" t="n">
-        <v>342.9016</v>
+        <v>15771189.8884</v>
       </c>
       <c r="G31" t="n">
-        <v>15854651.76979841</v>
+        <v>16013998.35591533</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1536,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38</v>
+        <v>37.84</v>
       </c>
       <c r="C32" t="n">
-        <v>38</v>
+        <v>37.84</v>
       </c>
       <c r="D32" t="n">
-        <v>38</v>
+        <v>37.84</v>
       </c>
       <c r="E32" t="n">
-        <v>38</v>
+        <v>37.84</v>
       </c>
       <c r="F32" t="n">
-        <v>2786.2801</v>
+        <v>1180.2032</v>
       </c>
       <c r="G32" t="n">
-        <v>15854651.76979841</v>
+        <v>16013998.35591533</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1572,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>38</v>
+        <v>37.84</v>
       </c>
       <c r="C33" t="n">
-        <v>38</v>
+        <v>37.12</v>
       </c>
       <c r="D33" t="n">
-        <v>38</v>
+        <v>37.84</v>
       </c>
       <c r="E33" t="n">
-        <v>38</v>
+        <v>37.12</v>
       </c>
       <c r="F33" t="n">
-        <v>3214</v>
+        <v>180043.0916</v>
       </c>
       <c r="G33" t="n">
-        <v>15854651.76979841</v>
+        <v>15833955.26431533</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1608,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>38</v>
+        <v>37.69</v>
       </c>
       <c r="C34" t="n">
-        <v>38</v>
+        <v>37.69</v>
       </c>
       <c r="D34" t="n">
-        <v>38</v>
+        <v>37.69</v>
       </c>
       <c r="E34" t="n">
-        <v>38</v>
+        <v>37.69</v>
       </c>
       <c r="F34" t="n">
-        <v>15446</v>
+        <v>345.9153</v>
       </c>
       <c r="G34" t="n">
-        <v>15854651.76979841</v>
+        <v>15834301.17961533</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1644,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>38</v>
+        <v>37.83</v>
       </c>
       <c r="C35" t="n">
-        <v>38</v>
+        <v>37.83</v>
       </c>
       <c r="D35" t="n">
-        <v>38</v>
+        <v>37.83</v>
       </c>
       <c r="E35" t="n">
-        <v>38</v>
+        <v>37.83</v>
       </c>
       <c r="F35" t="n">
-        <v>1542.5319</v>
+        <v>1442.5608</v>
       </c>
       <c r="G35" t="n">
-        <v>15854651.76979841</v>
+        <v>15835743.74041533</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1680,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>38</v>
+        <v>37.55</v>
       </c>
       <c r="C36" t="n">
-        <v>38</v>
+        <v>37.55</v>
       </c>
       <c r="D36" t="n">
-        <v>38</v>
+        <v>37.55</v>
       </c>
       <c r="E36" t="n">
-        <v>38</v>
+        <v>37.55</v>
       </c>
       <c r="F36" t="n">
-        <v>7280.325</v>
+        <v>956.6361000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>15854651.76979841</v>
+        <v>15834787.10431533</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1716,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="C37" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="D37" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="E37" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="F37" t="n">
-        <v>92043.35309999999</v>
+        <v>1697.648</v>
       </c>
       <c r="G37" t="n">
-        <v>15854651.76979841</v>
+        <v>15836484.75231533</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1752,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>37.77</v>
+        <v>37.71</v>
       </c>
       <c r="C38" t="n">
-        <v>37.77</v>
+        <v>37.71</v>
       </c>
       <c r="D38" t="n">
-        <v>37.77</v>
+        <v>37.71</v>
       </c>
       <c r="E38" t="n">
-        <v>37.77</v>
+        <v>37.71</v>
       </c>
       <c r="F38" t="n">
-        <v>2901.2576</v>
+        <v>4231.0912</v>
       </c>
       <c r="G38" t="n">
-        <v>15851750.51219841</v>
+        <v>15832253.66111533</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1788,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>37.9</v>
+        <v>37.89</v>
       </c>
       <c r="C39" t="n">
-        <v>37.9</v>
+        <v>37.89</v>
       </c>
       <c r="D39" t="n">
-        <v>37.9</v>
+        <v>37.89</v>
       </c>
       <c r="E39" t="n">
-        <v>37.9</v>
+        <v>37.89</v>
       </c>
       <c r="F39" t="n">
-        <v>270</v>
+        <v>117.28688308</v>
       </c>
       <c r="G39" t="n">
-        <v>15852020.51219841</v>
+        <v>15832370.94799841</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,38 +1824,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>37.6</v>
+        <v>37.9</v>
       </c>
       <c r="C40" t="n">
-        <v>37.49</v>
+        <v>37.99</v>
       </c>
       <c r="D40" t="n">
-        <v>37.6</v>
+        <v>37.99</v>
       </c>
       <c r="E40" t="n">
-        <v>37.49</v>
+        <v>37.9</v>
       </c>
       <c r="F40" t="n">
-        <v>20000.1635</v>
+        <v>13812.9817</v>
       </c>
       <c r="G40" t="n">
-        <v>15832020.34869841</v>
+        <v>15846183.92969841</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>37.9</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1848,38 +1860,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>37.7</v>
+        <v>37.99</v>
       </c>
       <c r="C41" t="n">
-        <v>37.7</v>
+        <v>37.99</v>
       </c>
       <c r="D41" t="n">
-        <v>37.7</v>
+        <v>37.99</v>
       </c>
       <c r="E41" t="n">
-        <v>37.7</v>
+        <v>37.99</v>
       </c>
       <c r="F41" t="n">
-        <v>696.0078</v>
+        <v>9813.917100000001</v>
       </c>
       <c r="G41" t="n">
-        <v>15832716.35649841</v>
+        <v>15846183.92969841</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>37.49</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1890,38 +1896,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="C42" t="n">
-        <v>37.83</v>
+        <v>38</v>
       </c>
       <c r="D42" t="n">
-        <v>37.83</v>
+        <v>38</v>
       </c>
       <c r="E42" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="F42" t="n">
-        <v>12412.8686</v>
+        <v>9330.617099999999</v>
       </c>
       <c r="G42" t="n">
-        <v>15845129.22509841</v>
+        <v>15855514.54679841</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>37.7</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1932,22 +1932,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>37.83</v>
+        <v>38.18</v>
       </c>
       <c r="C43" t="n">
-        <v>37.83</v>
+        <v>38.18</v>
       </c>
       <c r="D43" t="n">
-        <v>37.83</v>
+        <v>38.18</v>
       </c>
       <c r="E43" t="n">
-        <v>37.83</v>
+        <v>38.18</v>
       </c>
       <c r="F43" t="n">
-        <v>7587.1314</v>
+        <v>981.3694</v>
       </c>
       <c r="G43" t="n">
-        <v>15845129.22509841</v>
+        <v>15856495.91619841</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1957,11 +1957,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1972,38 +1968,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>37.7</v>
+        <v>38.17</v>
       </c>
       <c r="C44" t="n">
-        <v>37.7</v>
+        <v>38.17</v>
       </c>
       <c r="D44" t="n">
-        <v>37.7</v>
+        <v>38.17</v>
       </c>
       <c r="E44" t="n">
-        <v>37.7</v>
+        <v>38.17</v>
       </c>
       <c r="F44" t="n">
-        <v>850.095</v>
+        <v>16989</v>
       </c>
       <c r="G44" t="n">
-        <v>15844279.13009841</v>
+        <v>15839506.91619841</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>37.83</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2014,38 +2004,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>37.89</v>
+        <v>38</v>
       </c>
       <c r="C45" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="D45" t="n">
-        <v>37.89</v>
+        <v>38</v>
       </c>
       <c r="E45" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="F45" t="n">
-        <v>2153.5281</v>
+        <v>540.45</v>
       </c>
       <c r="G45" t="n">
-        <v>15844279.13009841</v>
+        <v>15838966.46619841</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>37.7</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2056,22 +2040,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>37.8</v>
+        <v>38.01</v>
       </c>
       <c r="C46" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="D46" t="n">
-        <v>37.8</v>
+        <v>38.01</v>
       </c>
       <c r="E46" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="F46" t="n">
-        <v>1675.429</v>
+        <v>5069.9808</v>
       </c>
       <c r="G46" t="n">
-        <v>15845954.55909841</v>
+        <v>15833896.48539841</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2081,11 +2065,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2096,38 +2076,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>37.85</v>
+        <v>38</v>
       </c>
       <c r="C47" t="n">
-        <v>37.85</v>
+        <v>38</v>
       </c>
       <c r="D47" t="n">
-        <v>37.85</v>
+        <v>38</v>
       </c>
       <c r="E47" t="n">
-        <v>37.85</v>
+        <v>38</v>
       </c>
       <c r="F47" t="n">
-        <v>12000</v>
+        <v>211.3976</v>
       </c>
       <c r="G47" t="n">
-        <v>15857954.55909841</v>
+        <v>15834107.88299841</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>37.8</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2138,22 +2112,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>37.62</v>
+        <v>38.08</v>
       </c>
       <c r="C48" t="n">
-        <v>38</v>
+        <v>38.09</v>
       </c>
       <c r="D48" t="n">
-        <v>38</v>
+        <v>38.09</v>
       </c>
       <c r="E48" t="n">
-        <v>37.62</v>
+        <v>38.08</v>
       </c>
       <c r="F48" t="n">
-        <v>30.0542</v>
+        <v>21265.0598</v>
       </c>
       <c r="G48" t="n">
-        <v>15857984.61329841</v>
+        <v>15855372.94279841</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2163,11 +2137,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2178,22 +2148,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="C49" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="D49" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="E49" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="F49" t="n">
-        <v>1441.1103</v>
+        <v>721.173</v>
       </c>
       <c r="G49" t="n">
-        <v>15856543.50299841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2203,11 +2173,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2184,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="C50" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="D50" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="E50" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="F50" t="n">
-        <v>207.3897</v>
+        <v>4173.702</v>
       </c>
       <c r="G50" t="n">
-        <v>15856543.50299841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2243,11 +2209,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2258,22 +2220,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>37.71</v>
+        <v>38</v>
       </c>
       <c r="C51" t="n">
-        <v>37.71</v>
+        <v>38</v>
       </c>
       <c r="D51" t="n">
-        <v>37.71</v>
+        <v>38</v>
       </c>
       <c r="E51" t="n">
-        <v>37.71</v>
+        <v>38</v>
       </c>
       <c r="F51" t="n">
-        <v>9645</v>
+        <v>3214</v>
       </c>
       <c r="G51" t="n">
-        <v>15846898.50299841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2283,11 +2245,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2298,38 +2256,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>37.95</v>
+        <v>38</v>
       </c>
       <c r="C52" t="n">
-        <v>37.95</v>
+        <v>38</v>
       </c>
       <c r="D52" t="n">
-        <v>37.95</v>
+        <v>38</v>
       </c>
       <c r="E52" t="n">
-        <v>37.95</v>
+        <v>38</v>
       </c>
       <c r="F52" t="n">
-        <v>3214</v>
+        <v>3300</v>
       </c>
       <c r="G52" t="n">
-        <v>15850112.50299841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>37.71</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2340,38 +2292,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>37.97</v>
+        <v>38</v>
       </c>
       <c r="C53" t="n">
-        <v>37.95</v>
+        <v>38</v>
       </c>
       <c r="D53" t="n">
-        <v>37.97</v>
+        <v>38</v>
       </c>
       <c r="E53" t="n">
-        <v>37.95</v>
+        <v>38</v>
       </c>
       <c r="F53" t="n">
-        <v>8549.936799999999</v>
+        <v>454.6239</v>
       </c>
       <c r="G53" t="n">
-        <v>15850112.50299841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>37.95</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2328,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="D54" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="E54" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="F54" t="n">
-        <v>240.1574</v>
+        <v>3214</v>
       </c>
       <c r="G54" t="n">
-        <v>15850352.66039841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2407,11 +2353,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2422,22 +2364,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="C55" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="D55" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="E55" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="F55" t="n">
-        <v>2758.3282</v>
+        <v>3214</v>
       </c>
       <c r="G55" t="n">
-        <v>15850352.66039841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2447,11 +2389,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2462,22 +2400,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>37.71</v>
+        <v>38</v>
       </c>
       <c r="C56" t="n">
-        <v>37.71</v>
+        <v>38</v>
       </c>
       <c r="D56" t="n">
-        <v>37.71</v>
+        <v>38</v>
       </c>
       <c r="E56" t="n">
-        <v>37.71</v>
+        <v>38</v>
       </c>
       <c r="F56" t="n">
-        <v>572.151</v>
+        <v>3300</v>
       </c>
       <c r="G56" t="n">
-        <v>15849780.50939841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2487,11 +2425,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2502,22 +2436,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>37.72</v>
+        <v>38</v>
       </c>
       <c r="C57" t="n">
-        <v>37.72</v>
+        <v>38</v>
       </c>
       <c r="D57" t="n">
-        <v>37.72</v>
+        <v>38</v>
       </c>
       <c r="E57" t="n">
-        <v>37.72</v>
+        <v>38</v>
       </c>
       <c r="F57" t="n">
-        <v>3175.1562</v>
+        <v>5330</v>
       </c>
       <c r="G57" t="n">
-        <v>15852955.66559841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2527,11 +2461,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2542,38 +2472,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>37.72</v>
+        <v>38</v>
       </c>
       <c r="C58" t="n">
-        <v>37.71</v>
+        <v>38</v>
       </c>
       <c r="D58" t="n">
-        <v>37.72</v>
+        <v>38</v>
       </c>
       <c r="E58" t="n">
-        <v>37.71</v>
+        <v>38</v>
       </c>
       <c r="F58" t="n">
-        <v>666.5</v>
+        <v>322</v>
       </c>
       <c r="G58" t="n">
-        <v>15852289.16559841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>37.72</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2584,22 +2508,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>37.98</v>
+        <v>38</v>
       </c>
       <c r="C59" t="n">
-        <v>37.98</v>
+        <v>38</v>
       </c>
       <c r="D59" t="n">
-        <v>37.98</v>
+        <v>38</v>
       </c>
       <c r="E59" t="n">
-        <v>37.98</v>
+        <v>38</v>
       </c>
       <c r="F59" t="n">
-        <v>2883.1619</v>
+        <v>5786.0679</v>
       </c>
       <c r="G59" t="n">
-        <v>15855172.32749841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2609,11 +2533,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2624,22 +2544,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="C60" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="D60" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="E60" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="F60" t="n">
-        <v>3696.4625</v>
+        <v>342.9016</v>
       </c>
       <c r="G60" t="n">
-        <v>15851475.86499841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2649,11 +2569,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2664,22 +2580,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="C61" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="D61" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="E61" t="n">
-        <v>37.99</v>
+        <v>38</v>
       </c>
       <c r="F61" t="n">
-        <v>2624.6719</v>
+        <v>2786.2801</v>
       </c>
       <c r="G61" t="n">
-        <v>15854100.53689841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2689,11 +2605,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2704,22 +2616,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="C62" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="D62" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="E62" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="F62" t="n">
-        <v>619.572</v>
+        <v>3214</v>
       </c>
       <c r="G62" t="n">
-        <v>15853480.96489841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2729,11 +2641,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2744,22 +2652,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="C63" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="D63" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="E63" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="F63" t="n">
-        <v>619.572</v>
+        <v>15446</v>
       </c>
       <c r="G63" t="n">
-        <v>15854100.53689841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2769,11 +2677,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2787,19 +2691,19 @@
         <v>38</v>
       </c>
       <c r="C64" t="n">
-        <v>38.02</v>
+        <v>38</v>
       </c>
       <c r="D64" t="n">
-        <v>38.02</v>
+        <v>38</v>
       </c>
       <c r="E64" t="n">
         <v>38</v>
       </c>
       <c r="F64" t="n">
-        <v>45611.4348</v>
+        <v>1542.5319</v>
       </c>
       <c r="G64" t="n">
-        <v>15899711.97169841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2809,11 +2713,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2824,22 +2724,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>38.04</v>
+        <v>38</v>
       </c>
       <c r="C65" t="n">
-        <v>38.05</v>
+        <v>38</v>
       </c>
       <c r="D65" t="n">
-        <v>38.05</v>
+        <v>38</v>
       </c>
       <c r="E65" t="n">
-        <v>38.04</v>
+        <v>38</v>
       </c>
       <c r="F65" t="n">
-        <v>3951.7632</v>
+        <v>7280.325</v>
       </c>
       <c r="G65" t="n">
-        <v>15903663.73489841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2849,11 +2749,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2864,68 +2760,64 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>38.05</v>
+        <v>38</v>
       </c>
       <c r="C66" t="n">
-        <v>38.05</v>
+        <v>38</v>
       </c>
       <c r="D66" t="n">
-        <v>38.05</v>
+        <v>38</v>
       </c>
       <c r="E66" t="n">
-        <v>38.05</v>
+        <v>38</v>
       </c>
       <c r="F66" t="n">
-        <v>4821</v>
+        <v>92043.35309999999</v>
       </c>
       <c r="G66" t="n">
-        <v>15903663.73489841</v>
+        <v>15854651.76979841</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
-        <v>1.028556034482759</v>
-      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>38.06</v>
+        <v>37.77</v>
       </c>
       <c r="C67" t="n">
-        <v>38.07</v>
+        <v>37.77</v>
       </c>
       <c r="D67" t="n">
-        <v>38.08</v>
+        <v>37.77</v>
       </c>
       <c r="E67" t="n">
-        <v>38.06</v>
+        <v>37.77</v>
       </c>
       <c r="F67" t="n">
-        <v>5909.2649</v>
+        <v>2901.2576</v>
       </c>
       <c r="G67" t="n">
-        <v>15909572.99979841</v>
+        <v>15851750.51219841</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2940,28 +2832,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>38.15</v>
+        <v>37.9</v>
       </c>
       <c r="C68" t="n">
-        <v>38.15</v>
+        <v>37.9</v>
       </c>
       <c r="D68" t="n">
-        <v>38.15</v>
+        <v>37.9</v>
       </c>
       <c r="E68" t="n">
-        <v>38.15</v>
+        <v>37.9</v>
       </c>
       <c r="F68" t="n">
-        <v>444.3686</v>
+        <v>270</v>
       </c>
       <c r="G68" t="n">
-        <v>15910017.36839841</v>
+        <v>15852020.51219841</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2976,28 +2868,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>38.14</v>
+        <v>37.6</v>
       </c>
       <c r="C69" t="n">
-        <v>38.14</v>
+        <v>37.49</v>
       </c>
       <c r="D69" t="n">
-        <v>38.14</v>
+        <v>37.6</v>
       </c>
       <c r="E69" t="n">
-        <v>38.14</v>
+        <v>37.49</v>
       </c>
       <c r="F69" t="n">
-        <v>53.2219</v>
+        <v>20000.1635</v>
       </c>
       <c r="G69" t="n">
-        <v>15909964.14649841</v>
+        <v>15832020.34869841</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3012,28 +2904,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>38.1</v>
+        <v>37.7</v>
       </c>
       <c r="C70" t="n">
-        <v>38.1</v>
+        <v>37.7</v>
       </c>
       <c r="D70" t="n">
-        <v>38.1</v>
+        <v>37.7</v>
       </c>
       <c r="E70" t="n">
-        <v>38.1</v>
+        <v>37.7</v>
       </c>
       <c r="F70" t="n">
-        <v>5480.9755</v>
+        <v>696.0078</v>
       </c>
       <c r="G70" t="n">
-        <v>15904483.17099841</v>
+        <v>15832716.35649841</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3048,28 +2940,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>38.15</v>
+        <v>37.7</v>
       </c>
       <c r="C71" t="n">
-        <v>38.08</v>
+        <v>37.83</v>
       </c>
       <c r="D71" t="n">
-        <v>38.15</v>
+        <v>37.83</v>
       </c>
       <c r="E71" t="n">
-        <v>38.08</v>
+        <v>37.7</v>
       </c>
       <c r="F71" t="n">
-        <v>5637.42926186</v>
+        <v>12412.8686</v>
       </c>
       <c r="G71" t="n">
-        <v>15898845.74173655</v>
+        <v>15845129.22509841</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3084,28 +2976,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>38.04</v>
+        <v>37.83</v>
       </c>
       <c r="C72" t="n">
-        <v>38.04</v>
+        <v>37.83</v>
       </c>
       <c r="D72" t="n">
-        <v>38.04</v>
+        <v>37.83</v>
       </c>
       <c r="E72" t="n">
-        <v>38.04</v>
+        <v>37.83</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0582</v>
+        <v>7587.1314</v>
       </c>
       <c r="G72" t="n">
-        <v>15898845.68353655</v>
+        <v>15845129.22509841</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3132,16 +3024,16 @@
         <v>37.7</v>
       </c>
       <c r="F73" t="n">
-        <v>2008.5373</v>
+        <v>850.095</v>
       </c>
       <c r="G73" t="n">
-        <v>15896837.14623655</v>
+        <v>15844279.13009841</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3156,28 +3048,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>38</v>
+        <v>37.89</v>
       </c>
       <c r="C74" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="D74" t="n">
-        <v>38</v>
+        <v>37.89</v>
       </c>
       <c r="E74" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="F74" t="n">
-        <v>146.18421052</v>
+        <v>2153.5281</v>
       </c>
       <c r="G74" t="n">
-        <v>15896983.33044707</v>
+        <v>15844279.13009841</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3192,28 +3084,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>37.89</v>
+        <v>37.8</v>
       </c>
       <c r="C75" t="n">
-        <v>37.89</v>
+        <v>37.8</v>
       </c>
       <c r="D75" t="n">
-        <v>37.89</v>
+        <v>37.8</v>
       </c>
       <c r="E75" t="n">
-        <v>37.89</v>
+        <v>37.8</v>
       </c>
       <c r="F75" t="n">
-        <v>12000</v>
+        <v>1675.429</v>
       </c>
       <c r="G75" t="n">
-        <v>15884983.33044707</v>
+        <v>15845954.55909841</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3228,28 +3120,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>37.8</v>
+        <v>37.85</v>
       </c>
       <c r="C76" t="n">
-        <v>37.97</v>
+        <v>37.85</v>
       </c>
       <c r="D76" t="n">
-        <v>37.97</v>
+        <v>37.85</v>
       </c>
       <c r="E76" t="n">
-        <v>37.7</v>
+        <v>37.85</v>
       </c>
       <c r="F76" t="n">
-        <v>2089.976</v>
+        <v>12000</v>
       </c>
       <c r="G76" t="n">
-        <v>15887073.30644707</v>
+        <v>15857954.55909841</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3264,28 +3156,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>37.89</v>
+        <v>37.62</v>
       </c>
       <c r="C77" t="n">
-        <v>37.89</v>
+        <v>38</v>
       </c>
       <c r="D77" t="n">
-        <v>37.89</v>
+        <v>38</v>
       </c>
       <c r="E77" t="n">
-        <v>37.89</v>
+        <v>37.62</v>
       </c>
       <c r="F77" t="n">
-        <v>9642</v>
+        <v>30.0542</v>
       </c>
       <c r="G77" t="n">
-        <v>15877431.30644707</v>
+        <v>15857984.61329841</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3300,22 +3192,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>37.89</v>
+        <v>37.7</v>
       </c>
       <c r="C78" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="D78" t="n">
-        <v>37.89</v>
+        <v>37.9</v>
       </c>
       <c r="E78" t="n">
         <v>37.7</v>
       </c>
       <c r="F78" t="n">
-        <v>65000</v>
+        <v>1441.1103</v>
       </c>
       <c r="G78" t="n">
-        <v>15812431.30644707</v>
+        <v>15856543.50299841</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3336,22 +3228,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="C79" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="D79" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="E79" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="F79" t="n">
-        <v>594.9616</v>
+        <v>207.3897</v>
       </c>
       <c r="G79" t="n">
-        <v>15812431.30644707</v>
+        <v>15856543.50299841</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3372,22 +3264,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>37.66</v>
+        <v>37.71</v>
       </c>
       <c r="C80" t="n">
-        <v>37.66</v>
+        <v>37.71</v>
       </c>
       <c r="D80" t="n">
-        <v>37.66</v>
+        <v>37.71</v>
       </c>
       <c r="E80" t="n">
-        <v>37.66</v>
+        <v>37.71</v>
       </c>
       <c r="F80" t="n">
-        <v>573.018</v>
+        <v>9645</v>
       </c>
       <c r="G80" t="n">
-        <v>15811858.28844707</v>
+        <v>15846898.50299841</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3408,22 +3300,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>37.66</v>
+        <v>37.95</v>
       </c>
       <c r="C81" t="n">
-        <v>37.63</v>
+        <v>37.95</v>
       </c>
       <c r="D81" t="n">
-        <v>37.66</v>
+        <v>37.95</v>
       </c>
       <c r="E81" t="n">
-        <v>37.63</v>
+        <v>37.95</v>
       </c>
       <c r="F81" t="n">
-        <v>1518.6184</v>
+        <v>3214</v>
       </c>
       <c r="G81" t="n">
-        <v>15810339.67004707</v>
+        <v>15850112.50299841</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3444,22 +3336,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>37.5</v>
+        <v>37.97</v>
       </c>
       <c r="C82" t="n">
-        <v>37.5</v>
+        <v>37.95</v>
       </c>
       <c r="D82" t="n">
-        <v>37.5</v>
+        <v>37.97</v>
       </c>
       <c r="E82" t="n">
-        <v>37.5</v>
+        <v>37.95</v>
       </c>
       <c r="F82" t="n">
-        <v>204.1014</v>
+        <v>8549.936799999999</v>
       </c>
       <c r="G82" t="n">
-        <v>15810135.56864707</v>
+        <v>15850112.50299841</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3480,22 +3372,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>37.5</v>
+        <v>37.99</v>
       </c>
       <c r="C83" t="n">
-        <v>37.5</v>
+        <v>37.99</v>
       </c>
       <c r="D83" t="n">
-        <v>37.5</v>
+        <v>37.99</v>
       </c>
       <c r="E83" t="n">
-        <v>37.5</v>
+        <v>37.99</v>
       </c>
       <c r="F83" t="n">
-        <v>256.2857</v>
+        <v>240.1574</v>
       </c>
       <c r="G83" t="n">
-        <v>15810135.56864707</v>
+        <v>15850352.66039841</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3516,22 +3408,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>37.64</v>
+        <v>37.99</v>
       </c>
       <c r="C84" t="n">
-        <v>37.64</v>
+        <v>37.99</v>
       </c>
       <c r="D84" t="n">
-        <v>37.64</v>
+        <v>37.99</v>
       </c>
       <c r="E84" t="n">
-        <v>37.64</v>
+        <v>37.99</v>
       </c>
       <c r="F84" t="n">
-        <v>2870.1351</v>
+        <v>2758.3282</v>
       </c>
       <c r="G84" t="n">
-        <v>15813005.70374707</v>
+        <v>15850352.66039841</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3552,28 +3444,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>37.55</v>
+        <v>37.71</v>
       </c>
       <c r="C85" t="n">
-        <v>37.64</v>
+        <v>37.71</v>
       </c>
       <c r="D85" t="n">
-        <v>37.64</v>
+        <v>37.71</v>
       </c>
       <c r="E85" t="n">
-        <v>37.55</v>
+        <v>37.71</v>
       </c>
       <c r="F85" t="n">
-        <v>4243.3505</v>
+        <v>572.151</v>
       </c>
       <c r="G85" t="n">
-        <v>15813005.70374707</v>
+        <v>15849780.50939841</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3588,22 +3480,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>37.64</v>
+        <v>37.72</v>
       </c>
       <c r="C86" t="n">
-        <v>37.64</v>
+        <v>37.72</v>
       </c>
       <c r="D86" t="n">
-        <v>37.64</v>
+        <v>37.72</v>
       </c>
       <c r="E86" t="n">
-        <v>37.64</v>
+        <v>37.72</v>
       </c>
       <c r="F86" t="n">
-        <v>5914.8649</v>
+        <v>3175.1562</v>
       </c>
       <c r="G86" t="n">
-        <v>15813005.70374707</v>
+        <v>15852955.66559841</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3624,22 +3516,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>38</v>
+        <v>37.72</v>
       </c>
       <c r="C87" t="n">
-        <v>38</v>
+        <v>37.71</v>
       </c>
       <c r="D87" t="n">
-        <v>38</v>
+        <v>37.72</v>
       </c>
       <c r="E87" t="n">
-        <v>38</v>
+        <v>37.71</v>
       </c>
       <c r="F87" t="n">
-        <v>40279.0487</v>
+        <v>666.5</v>
       </c>
       <c r="G87" t="n">
-        <v>15853284.75244707</v>
+        <v>15852289.16559841</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3660,28 +3552,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>38</v>
+        <v>37.98</v>
       </c>
       <c r="C88" t="n">
-        <v>38</v>
+        <v>37.98</v>
       </c>
       <c r="D88" t="n">
-        <v>38</v>
+        <v>37.98</v>
       </c>
       <c r="E88" t="n">
-        <v>38</v>
+        <v>37.98</v>
       </c>
       <c r="F88" t="n">
-        <v>6428</v>
+        <v>2883.1619</v>
       </c>
       <c r="G88" t="n">
-        <v>15853284.75244707</v>
+        <v>15855172.32749841</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3696,22 +3588,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>38</v>
+        <v>37.99</v>
       </c>
       <c r="C89" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="D89" t="n">
-        <v>38</v>
+        <v>37.99</v>
       </c>
       <c r="E89" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="F89" t="n">
-        <v>3776.193</v>
+        <v>3696.4625</v>
       </c>
       <c r="G89" t="n">
-        <v>15853284.75244707</v>
+        <v>15851475.86499841</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3732,22 +3624,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>38</v>
+        <v>37.99</v>
       </c>
       <c r="C90" t="n">
-        <v>37.6</v>
+        <v>37.99</v>
       </c>
       <c r="D90" t="n">
-        <v>38</v>
+        <v>37.99</v>
       </c>
       <c r="E90" t="n">
-        <v>37.6</v>
+        <v>37.99</v>
       </c>
       <c r="F90" t="n">
-        <v>50460.8259</v>
+        <v>2624.6719</v>
       </c>
       <c r="G90" t="n">
-        <v>15802823.92654707</v>
+        <v>15854100.53689841</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3768,28 +3660,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>37.97</v>
+        <v>37.8</v>
       </c>
       <c r="C91" t="n">
-        <v>37.97</v>
+        <v>37.8</v>
       </c>
       <c r="D91" t="n">
-        <v>37.97</v>
+        <v>37.8</v>
       </c>
       <c r="E91" t="n">
-        <v>37.97</v>
+        <v>37.8</v>
       </c>
       <c r="F91" t="n">
-        <v>10000</v>
+        <v>619.572</v>
       </c>
       <c r="G91" t="n">
-        <v>15812823.92654707</v>
+        <v>15853480.96489841</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3804,22 +3696,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>37.98</v>
+        <v>37.9</v>
       </c>
       <c r="C92" t="n">
-        <v>37.98</v>
+        <v>37.9</v>
       </c>
       <c r="D92" t="n">
-        <v>37.98</v>
+        <v>37.9</v>
       </c>
       <c r="E92" t="n">
-        <v>37.98</v>
+        <v>37.9</v>
       </c>
       <c r="F92" t="n">
-        <v>21000</v>
+        <v>619.572</v>
       </c>
       <c r="G92" t="n">
-        <v>15833823.92654707</v>
+        <v>15854100.53689841</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3840,22 +3732,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>37.62</v>
+        <v>38</v>
       </c>
       <c r="C93" t="n">
-        <v>37.62</v>
+        <v>38.02</v>
       </c>
       <c r="D93" t="n">
-        <v>37.62</v>
+        <v>38.02</v>
       </c>
       <c r="E93" t="n">
-        <v>37.62</v>
+        <v>38</v>
       </c>
       <c r="F93" t="n">
-        <v>799.332</v>
+        <v>45611.4348</v>
       </c>
       <c r="G93" t="n">
-        <v>15833024.59454707</v>
+        <v>15899711.97169841</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3876,28 +3768,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>37.9</v>
+        <v>38.04</v>
       </c>
       <c r="C94" t="n">
-        <v>37.98</v>
+        <v>38.05</v>
       </c>
       <c r="D94" t="n">
-        <v>37.98</v>
+        <v>38.05</v>
       </c>
       <c r="E94" t="n">
-        <v>37.9</v>
+        <v>38.04</v>
       </c>
       <c r="F94" t="n">
-        <v>10453.18450468</v>
+        <v>3951.7632</v>
       </c>
       <c r="G94" t="n">
-        <v>15843477.77905175</v>
+        <v>15903663.73489841</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3912,28 +3804,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>37.77</v>
+        <v>38.05</v>
       </c>
       <c r="C95" t="n">
-        <v>37.98</v>
+        <v>38.05</v>
       </c>
       <c r="D95" t="n">
-        <v>37.98</v>
+        <v>38.05</v>
       </c>
       <c r="E95" t="n">
-        <v>37.77</v>
+        <v>38.05</v>
       </c>
       <c r="F95" t="n">
-        <v>4742.285</v>
+        <v>4821</v>
       </c>
       <c r="G95" t="n">
-        <v>15843477.77905175</v>
+        <v>15903663.73489841</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3948,28 +3840,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>37.88</v>
+        <v>38.06</v>
       </c>
       <c r="C96" t="n">
-        <v>37.88</v>
+        <v>38.07</v>
       </c>
       <c r="D96" t="n">
-        <v>37.88</v>
+        <v>38.08</v>
       </c>
       <c r="E96" t="n">
-        <v>37.88</v>
+        <v>38.06</v>
       </c>
       <c r="F96" t="n">
-        <v>247.8483</v>
+        <v>5909.2649</v>
       </c>
       <c r="G96" t="n">
-        <v>15843229.93075175</v>
+        <v>15909572.99979841</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3984,28 +3876,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>37.83</v>
+        <v>38.15</v>
       </c>
       <c r="C97" t="n">
-        <v>37.88</v>
+        <v>38.15</v>
       </c>
       <c r="D97" t="n">
-        <v>37.88</v>
+        <v>38.15</v>
       </c>
       <c r="E97" t="n">
-        <v>37.83</v>
+        <v>38.15</v>
       </c>
       <c r="F97" t="n">
-        <v>8647.78084582</v>
+        <v>444.3686</v>
       </c>
       <c r="G97" t="n">
-        <v>15843229.93075175</v>
+        <v>15910017.36839841</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4020,28 +3912,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>37.83</v>
+        <v>38.14</v>
       </c>
       <c r="C98" t="n">
-        <v>37.83</v>
+        <v>38.14</v>
       </c>
       <c r="D98" t="n">
-        <v>37.88</v>
+        <v>38.14</v>
       </c>
       <c r="E98" t="n">
-        <v>37.83</v>
+        <v>38.14</v>
       </c>
       <c r="F98" t="n">
-        <v>768.25684582</v>
+        <v>53.2219</v>
       </c>
       <c r="G98" t="n">
-        <v>15842461.67390593</v>
+        <v>15909964.14649841</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4056,28 +3948,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>37.8</v>
+        <v>38.1</v>
       </c>
       <c r="C99" t="n">
-        <v>37.8</v>
+        <v>38.1</v>
       </c>
       <c r="D99" t="n">
-        <v>37.8</v>
+        <v>38.1</v>
       </c>
       <c r="E99" t="n">
-        <v>37.8</v>
+        <v>38.1</v>
       </c>
       <c r="F99" t="n">
-        <v>897.9640000000001</v>
+        <v>5480.9755</v>
       </c>
       <c r="G99" t="n">
-        <v>15841563.70990593</v>
+        <v>15904483.17099841</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4092,28 +3984,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>37.8</v>
+        <v>38.15</v>
       </c>
       <c r="C100" t="n">
-        <v>37.7</v>
+        <v>38.08</v>
       </c>
       <c r="D100" t="n">
-        <v>37.8</v>
+        <v>38.15</v>
       </c>
       <c r="E100" t="n">
-        <v>37.7</v>
+        <v>38.08</v>
       </c>
       <c r="F100" t="n">
-        <v>2069.7427</v>
+        <v>5637.42926186</v>
       </c>
       <c r="G100" t="n">
-        <v>15839493.96720593</v>
+        <v>15898845.74173655</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4128,28 +4020,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>37.7</v>
+        <v>38.04</v>
       </c>
       <c r="C101" t="n">
-        <v>37.7</v>
+        <v>38.04</v>
       </c>
       <c r="D101" t="n">
-        <v>37.7</v>
+        <v>38.04</v>
       </c>
       <c r="E101" t="n">
-        <v>37.7</v>
+        <v>38.04</v>
       </c>
       <c r="F101" t="n">
-        <v>64241.3538</v>
+        <v>0.0582</v>
       </c>
       <c r="G101" t="n">
-        <v>15839493.96720593</v>
+        <v>15898845.68353655</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4176,16 +4068,16 @@
         <v>37.7</v>
       </c>
       <c r="F102" t="n">
-        <v>4181.4697</v>
+        <v>2008.5373</v>
       </c>
       <c r="G102" t="n">
-        <v>15839493.96720593</v>
+        <v>15896837.14623655</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4200,22 +4092,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>37.83</v>
+        <v>38</v>
       </c>
       <c r="C103" t="n">
-        <v>37.93</v>
+        <v>38</v>
       </c>
       <c r="D103" t="n">
-        <v>37.93</v>
+        <v>38</v>
       </c>
       <c r="E103" t="n">
-        <v>37.83</v>
+        <v>38</v>
       </c>
       <c r="F103" t="n">
-        <v>11710.5827</v>
+        <v>146.18421052</v>
       </c>
       <c r="G103" t="n">
-        <v>15851204.54990593</v>
+        <v>15896983.33044707</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4236,28 +4128,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>37.8</v>
+        <v>37.89</v>
       </c>
       <c r="C104" t="n">
-        <v>37.8</v>
+        <v>37.89</v>
       </c>
       <c r="D104" t="n">
-        <v>37.8</v>
+        <v>37.89</v>
       </c>
       <c r="E104" t="n">
-        <v>37.8</v>
+        <v>37.89</v>
       </c>
       <c r="F104" t="n">
-        <v>646.092</v>
+        <v>12000</v>
       </c>
       <c r="G104" t="n">
-        <v>15850558.45790593</v>
+        <v>15884983.33044707</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4275,25 +4167,25 @@
         <v>37.8</v>
       </c>
       <c r="C105" t="n">
-        <v>37.8</v>
+        <v>37.97</v>
       </c>
       <c r="D105" t="n">
-        <v>37.8</v>
+        <v>37.97</v>
       </c>
       <c r="E105" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="F105" t="n">
-        <v>514.492</v>
+        <v>2089.976</v>
       </c>
       <c r="G105" t="n">
-        <v>15850558.45790593</v>
+        <v>15887073.30644707</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4308,28 +4200,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>37.8</v>
+        <v>37.89</v>
       </c>
       <c r="C106" t="n">
-        <v>37.8</v>
+        <v>37.89</v>
       </c>
       <c r="D106" t="n">
-        <v>37.8</v>
+        <v>37.89</v>
       </c>
       <c r="E106" t="n">
-        <v>37.8</v>
+        <v>37.89</v>
       </c>
       <c r="F106" t="n">
-        <v>824.201</v>
+        <v>9642</v>
       </c>
       <c r="G106" t="n">
-        <v>15850558.45790593</v>
+        <v>15877431.30644707</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4344,28 +4236,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>38.09</v>
+        <v>37.89</v>
       </c>
       <c r="C107" t="n">
-        <v>38.09</v>
+        <v>37.7</v>
       </c>
       <c r="D107" t="n">
-        <v>38.09</v>
+        <v>37.89</v>
       </c>
       <c r="E107" t="n">
-        <v>38.09</v>
+        <v>37.7</v>
       </c>
       <c r="F107" t="n">
-        <v>3214</v>
+        <v>65000</v>
       </c>
       <c r="G107" t="n">
-        <v>15853772.45790593</v>
+        <v>15812431.30644707</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4380,22 +4272,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>38.09</v>
+        <v>37.7</v>
       </c>
       <c r="C108" t="n">
-        <v>38.09</v>
+        <v>37.7</v>
       </c>
       <c r="D108" t="n">
-        <v>38.09</v>
+        <v>37.7</v>
       </c>
       <c r="E108" t="n">
-        <v>38.09</v>
+        <v>37.7</v>
       </c>
       <c r="F108" t="n">
-        <v>15113.83</v>
+        <v>594.9616</v>
       </c>
       <c r="G108" t="n">
-        <v>15853772.45790593</v>
+        <v>15812431.30644707</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4416,28 +4308,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>38.1</v>
+        <v>37.66</v>
       </c>
       <c r="C109" t="n">
-        <v>38.1</v>
+        <v>37.66</v>
       </c>
       <c r="D109" t="n">
-        <v>38.1</v>
+        <v>37.66</v>
       </c>
       <c r="E109" t="n">
-        <v>38.1</v>
+        <v>37.66</v>
       </c>
       <c r="F109" t="n">
-        <v>426.7217</v>
+        <v>573.018</v>
       </c>
       <c r="G109" t="n">
-        <v>15854199.17960593</v>
+        <v>15811858.28844707</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4447,6 +4339,1050 @@
       </c>
       <c r="N109" t="inlineStr"/>
     </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>37.66</v>
+      </c>
+      <c r="C110" t="n">
+        <v>37.63</v>
+      </c>
+      <c r="D110" t="n">
+        <v>37.66</v>
+      </c>
+      <c r="E110" t="n">
+        <v>37.63</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1518.6184</v>
+      </c>
+      <c r="G110" t="n">
+        <v>15810339.67004707</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>204.1014</v>
+      </c>
+      <c r="G111" t="n">
+        <v>15810135.56864707</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>256.2857</v>
+      </c>
+      <c r="G112" t="n">
+        <v>15810135.56864707</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="C113" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="D113" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="E113" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2870.1351</v>
+      </c>
+      <c r="G113" t="n">
+        <v>15813005.70374707</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="C114" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="D114" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="E114" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4243.3505</v>
+      </c>
+      <c r="G114" t="n">
+        <v>15813005.70374707</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="C115" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="D115" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="E115" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5914.8649</v>
+      </c>
+      <c r="G115" t="n">
+        <v>15813005.70374707</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>38</v>
+      </c>
+      <c r="C116" t="n">
+        <v>38</v>
+      </c>
+      <c r="D116" t="n">
+        <v>38</v>
+      </c>
+      <c r="E116" t="n">
+        <v>38</v>
+      </c>
+      <c r="F116" t="n">
+        <v>40279.0487</v>
+      </c>
+      <c r="G116" t="n">
+        <v>15853284.75244707</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>38</v>
+      </c>
+      <c r="C117" t="n">
+        <v>38</v>
+      </c>
+      <c r="D117" t="n">
+        <v>38</v>
+      </c>
+      <c r="E117" t="n">
+        <v>38</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6428</v>
+      </c>
+      <c r="G117" t="n">
+        <v>15853284.75244707</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>38</v>
+      </c>
+      <c r="C118" t="n">
+        <v>38</v>
+      </c>
+      <c r="D118" t="n">
+        <v>38</v>
+      </c>
+      <c r="E118" t="n">
+        <v>38</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3776.193</v>
+      </c>
+      <c r="G118" t="n">
+        <v>15853284.75244707</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>38</v>
+      </c>
+      <c r="C119" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>38</v>
+      </c>
+      <c r="E119" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F119" t="n">
+        <v>50460.8259</v>
+      </c>
+      <c r="G119" t="n">
+        <v>15802823.92654707</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>37.97</v>
+      </c>
+      <c r="C120" t="n">
+        <v>37.97</v>
+      </c>
+      <c r="D120" t="n">
+        <v>37.97</v>
+      </c>
+      <c r="E120" t="n">
+        <v>37.97</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>15812823.92654707</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="C121" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="D121" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="E121" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="F121" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>15833823.92654707</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>37.62</v>
+      </c>
+      <c r="C122" t="n">
+        <v>37.62</v>
+      </c>
+      <c r="D122" t="n">
+        <v>37.62</v>
+      </c>
+      <c r="E122" t="n">
+        <v>37.62</v>
+      </c>
+      <c r="F122" t="n">
+        <v>799.332</v>
+      </c>
+      <c r="G122" t="n">
+        <v>15833024.59454707</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C123" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="D123" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="E123" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10453.18450468</v>
+      </c>
+      <c r="G123" t="n">
+        <v>15843477.77905175</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="C124" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="D124" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="E124" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4742.285</v>
+      </c>
+      <c r="G124" t="n">
+        <v>15843477.77905175</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="C125" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="D125" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="E125" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="F125" t="n">
+        <v>247.8483</v>
+      </c>
+      <c r="G125" t="n">
+        <v>15843229.93075175</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="C126" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="D126" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="E126" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8647.78084582</v>
+      </c>
+      <c r="G126" t="n">
+        <v>15843229.93075175</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="C127" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="D127" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="E127" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="F127" t="n">
+        <v>768.25684582</v>
+      </c>
+      <c r="G127" t="n">
+        <v>15842461.67390593</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>897.9640000000001</v>
+      </c>
+      <c r="G128" t="n">
+        <v>15841563.70990593</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2069.7427</v>
+      </c>
+      <c r="G129" t="n">
+        <v>15839493.96720593</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>64241.3538</v>
+      </c>
+      <c r="G130" t="n">
+        <v>15839493.96720593</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4181.4697</v>
+      </c>
+      <c r="G131" t="n">
+        <v>15839493.96720593</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="C132" t="n">
+        <v>37.93</v>
+      </c>
+      <c r="D132" t="n">
+        <v>37.93</v>
+      </c>
+      <c r="E132" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="F132" t="n">
+        <v>11710.5827</v>
+      </c>
+      <c r="G132" t="n">
+        <v>15851204.54990593</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>646.092</v>
+      </c>
+      <c r="G133" t="n">
+        <v>15850558.45790593</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>514.492</v>
+      </c>
+      <c r="G134" t="n">
+        <v>15850558.45790593</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>824.201</v>
+      </c>
+      <c r="G135" t="n">
+        <v>15850558.45790593</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="C136" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="D136" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="E136" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3214</v>
+      </c>
+      <c r="G136" t="n">
+        <v>15853772.45790593</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="C137" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="D137" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="E137" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="F137" t="n">
+        <v>15113.83</v>
+      </c>
+      <c r="G137" t="n">
+        <v>15853772.45790593</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>426.7217</v>
+      </c>
+      <c r="G138" t="n">
+        <v>15854199.17960593</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-15 BackTest XEM.xlsx
+++ b/BackTest/2020-01-15 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-161499.7982085</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-160109.7982085</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>37.36</v>
       </c>
       <c r="J3" t="n">
         <v>37.36</v>
       </c>
-      <c r="K3" t="n">
-        <v>37.36</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-155422.9762085</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>37.51</v>
       </c>
       <c r="J4" t="n">
-        <v>37.51</v>
-      </c>
-      <c r="K4" t="n">
         <v>37.36</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,23 @@
         <v>-139018.0470085</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="J5" t="n">
         <v>37.36</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,16 +605,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,16 +638,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,16 +671,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -728,16 +704,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,16 +737,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -800,16 +770,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,16 +803,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -872,16 +836,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -908,16 +869,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -944,16 +902,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -980,16 +935,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1016,16 +968,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1052,16 +1001,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1088,16 +1034,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1124,16 +1067,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1160,16 +1100,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,16 +1133,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1232,16 +1166,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,16 +1199,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1304,16 +1232,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1340,16 +1265,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1376,16 +1298,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,16 +1331,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1448,16 +1364,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1484,16 +1397,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1520,16 +1430,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1556,16 +1463,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1592,16 +1496,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1628,16 +1529,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1664,16 +1562,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1700,16 +1595,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1736,16 +1628,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1772,16 +1661,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1808,16 +1694,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1844,16 +1727,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1880,16 +1760,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1916,16 +1793,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1952,16 +1826,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1988,16 +1859,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2024,16 +1892,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2060,16 +1925,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2096,16 +1958,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2132,16 +1991,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2168,16 +2024,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2204,16 +2057,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2240,16 +2090,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2276,16 +2123,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2312,16 +2156,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2348,16 +2189,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2384,16 +2222,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2420,16 +2255,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2456,16 +2288,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2492,16 +2321,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2528,16 +2354,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2564,16 +2387,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2600,16 +2420,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2636,16 +2453,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2672,16 +2486,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2708,16 +2519,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2744,16 +2552,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2780,16 +2585,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2816,16 +2618,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2852,16 +2651,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2888,16 +2684,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2924,16 +2717,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2960,16 +2750,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2996,16 +2783,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3032,16 +2816,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3068,16 +2849,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3104,16 +2882,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3140,16 +2915,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3176,16 +2948,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3212,16 +2981,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3248,16 +3014,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3284,16 +3047,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3320,16 +3080,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3356,16 +3113,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3392,16 +3146,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3428,16 +3179,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3464,16 +3212,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3500,16 +3245,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3536,16 +3278,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3572,16 +3311,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3608,16 +3344,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3644,16 +3377,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3680,16 +3410,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3716,16 +3443,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3752,16 +3476,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3788,16 +3509,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3824,16 +3542,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3860,16 +3575,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3896,16 +3608,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3930,18 +3639,15 @@
         <v>15909964.14649841</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3966,18 +3672,15 @@
         <v>15904483.17099841</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4002,18 +3705,15 @@
         <v>15898845.74173655</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4038,18 +3738,15 @@
         <v>15898845.68353655</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4074,18 +3771,15 @@
         <v>15896837.14623655</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4112,16 +3806,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4146,18 +3837,15 @@
         <v>15884983.33044707</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4184,16 +3872,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4220,16 +3905,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4256,16 +3938,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4292,16 +3971,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4328,16 +4004,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4364,16 +4037,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4400,16 +4070,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4436,16 +4103,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4472,16 +4136,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4508,16 +4169,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4544,16 +4202,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4580,16 +4235,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4616,16 +4268,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4652,16 +4301,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4688,16 +4334,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4724,16 +4367,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4760,16 +4400,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4796,16 +4433,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4832,16 +4466,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4868,16 +4499,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4904,16 +4532,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4940,16 +4565,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4976,16 +4598,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5012,16 +4631,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5048,16 +4664,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5084,16 +4697,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5120,16 +4730,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5154,18 +4761,15 @@
         <v>15851204.54990593</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5190,18 +4794,15 @@
         <v>15850558.45790593</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5226,18 +4827,15 @@
         <v>15850558.45790593</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5264,16 +4862,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5298,18 +4893,15 @@
         <v>15853772.45790593</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5334,18 +4926,15 @@
         <v>15853772.45790593</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5370,20 +4959,17 @@
         <v>15854199.17960593</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest XEM.xlsx
+++ b/BackTest/2020-01-15 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-161499.7982085</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-160109.7982085</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>37.36</v>
@@ -521,7 +521,7 @@
         <v>-155422.9762085</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>37.51</v>
@@ -562,7 +562,7 @@
         <v>-139018.0470085</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>37.9</v>
@@ -834,10 +834,14 @@
         <v>-152985.6479846699</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="J13" t="n">
+        <v>37.73</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -867,11 +871,19 @@
         <v>-138080.6822846699</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -900,11 +912,19 @@
         <v>-138060.6822846699</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -933,10 +953,14 @@
         <v>-138040.6822846699</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="J16" t="n">
+        <v>37.77</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -966,11 +990,19 @@
         <v>-137738.3387846699</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="J17" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1002,8 +1034,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1263,10 +1301,14 @@
         <v>54562.82811533008</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>37.9</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1296,11 +1338,19 @@
         <v>55395.46751533008</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="J27" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1329,11 +1379,19 @@
         <v>55375.46751533008</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1362,10 +1420,14 @@
         <v>245375.4675153301</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>37.78</v>
+      </c>
+      <c r="J29" t="n">
+        <v>37.78</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1395,11 +1457,19 @@
         <v>242808.4675153301</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>37.78</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1428,11 +1498,19 @@
         <v>16013998.35591533</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>37.78</v>
+      </c>
+      <c r="J31" t="n">
+        <v>37.78</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -2154,7 +2232,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2220,7 +2298,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2253,7 +2331,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2286,7 +2364,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2319,7 +2397,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2352,7 +2430,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2385,7 +2463,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2418,7 +2496,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2451,7 +2529,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2484,7 +2562,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2517,7 +2595,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2550,7 +2628,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2583,7 +2661,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2616,7 +2694,7 @@
         <v>15851750.51219841</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3012,7 +3090,7 @@
         <v>15856543.50299841</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3045,7 +3123,7 @@
         <v>15846898.50299841</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3111,7 +3189,7 @@
         <v>15850112.50299841</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3144,7 +3222,7 @@
         <v>15850352.66039841</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3177,7 +3255,7 @@
         <v>15850352.66039841</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3276,7 +3354,7 @@
         <v>15852289.16559841</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3309,7 +3387,7 @@
         <v>15855172.32749841</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3342,7 +3420,7 @@
         <v>15851475.86499841</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3375,7 +3453,7 @@
         <v>15854100.53689841</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3408,7 +3486,7 @@
         <v>15853480.96489841</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3441,7 +3519,7 @@
         <v>15854100.53689841</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3474,7 +3552,7 @@
         <v>15899711.97169841</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3507,7 +3585,7 @@
         <v>15903663.73489841</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3540,7 +3618,7 @@
         <v>15903663.73489841</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3573,7 +3651,7 @@
         <v>15909572.99979841</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3606,7 +3684,7 @@
         <v>15910017.36839841</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3639,7 +3717,7 @@
         <v>15909964.14649841</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3672,7 +3750,7 @@
         <v>15904483.17099841</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3705,7 +3783,7 @@
         <v>15898845.74173655</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3738,7 +3816,7 @@
         <v>15898845.68353655</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3771,7 +3849,7 @@
         <v>15896837.14623655</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3804,7 +3882,7 @@
         <v>15896983.33044707</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3837,7 +3915,7 @@
         <v>15884983.33044707</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3870,7 +3948,7 @@
         <v>15887073.30644707</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3903,7 +3981,7 @@
         <v>15877431.30644707</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3936,7 +4014,7 @@
         <v>15812431.30644707</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3969,7 +4047,7 @@
         <v>15812431.30644707</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4002,7 +4080,7 @@
         <v>15811858.28844707</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4035,7 +4113,7 @@
         <v>15810339.67004707</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4068,7 +4146,7 @@
         <v>15810135.56864707</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4101,7 +4179,7 @@
         <v>15810135.56864707</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4134,7 +4212,7 @@
         <v>15813005.70374707</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4167,7 +4245,7 @@
         <v>15813005.70374707</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4200,7 +4278,7 @@
         <v>15813005.70374707</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4233,7 +4311,7 @@
         <v>15853284.75244707</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4266,7 +4344,7 @@
         <v>15853284.75244707</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4299,7 +4377,7 @@
         <v>15853284.75244707</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4332,7 +4410,7 @@
         <v>15802823.92654707</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4365,7 +4443,7 @@
         <v>15812823.92654707</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4761,7 +4839,7 @@
         <v>15851204.54990593</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4794,7 +4872,7 @@
         <v>15850558.45790593</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4827,7 +4905,7 @@
         <v>15850558.45790593</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4893,7 +4971,7 @@
         <v>15853772.45790593</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4926,7 +5004,7 @@
         <v>15853772.45790593</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4959,7 +5037,7 @@
         <v>15854199.17960593</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4970,6 +5048,6 @@
       <c r="M138" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest XEM.xlsx
+++ b/BackTest/2020-01-15 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -562,11 +562,9 @@
         <v>-139018.0470085</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>37.36</v>
       </c>
@@ -603,7 +601,7 @@
         <v>-108643.81708467</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -636,7 +634,7 @@
         <v>-109283.53308467</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -834,14 +832,10 @@
         <v>-152985.6479846699</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>37.73</v>
-      </c>
-      <c r="J13" t="n">
-        <v>37.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -871,19 +865,11 @@
         <v>-138080.6822846699</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>37.73</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -912,19 +898,11 @@
         <v>-138060.6822846699</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>37.75</v>
-      </c>
-      <c r="J15" t="n">
-        <v>37.73</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -953,14 +931,10 @@
         <v>-138040.6822846699</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>37.77</v>
-      </c>
-      <c r="J16" t="n">
-        <v>37.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -990,19 +964,11 @@
         <v>-137738.3387846699</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>37.85</v>
-      </c>
-      <c r="J17" t="n">
-        <v>37.77</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1034,14 +1000,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>37.77</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1301,14 +1261,10 @@
         <v>54562.82811533008</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>37.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1338,19 +1294,11 @@
         <v>55395.46751533008</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>37.83</v>
-      </c>
-      <c r="J27" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1379,19 +1327,11 @@
         <v>55375.46751533008</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="J28" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1420,14 +1360,10 @@
         <v>245375.4675153301</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>37.78</v>
-      </c>
-      <c r="J29" t="n">
-        <v>37.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1457,19 +1393,11 @@
         <v>242808.4675153301</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>37.78</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1498,19 +1426,11 @@
         <v>16013998.35591533</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>37.78</v>
-      </c>
-      <c r="J31" t="n">
-        <v>37.78</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -2232,7 +2152,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2298,7 +2218,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2331,7 +2251,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2364,7 +2284,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2397,7 +2317,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2430,7 +2350,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2463,7 +2383,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2496,7 +2416,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2529,7 +2449,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2562,7 +2482,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2595,7 +2515,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2628,7 +2548,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2661,7 +2581,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2694,7 +2614,7 @@
         <v>15851750.51219841</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3090,7 +3010,7 @@
         <v>15856543.50299841</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3123,7 +3043,7 @@
         <v>15846898.50299841</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3189,7 +3109,7 @@
         <v>15850112.50299841</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3222,7 +3142,7 @@
         <v>15850352.66039841</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3255,7 +3175,7 @@
         <v>15850352.66039841</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3354,7 +3274,7 @@
         <v>15852289.16559841</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3387,7 +3307,7 @@
         <v>15855172.32749841</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3420,7 +3340,7 @@
         <v>15851475.86499841</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3453,7 +3373,7 @@
         <v>15854100.53689841</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3486,7 +3406,7 @@
         <v>15853480.96489841</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3519,7 +3439,7 @@
         <v>15854100.53689841</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3552,7 +3472,7 @@
         <v>15899711.97169841</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3585,7 +3505,7 @@
         <v>15903663.73489841</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3618,7 +3538,7 @@
         <v>15903663.73489841</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3651,7 +3571,7 @@
         <v>15909572.99979841</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3684,7 +3604,7 @@
         <v>15910017.36839841</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3717,7 +3637,7 @@
         <v>15909964.14649841</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3783,7 +3703,7 @@
         <v>15898845.74173655</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3816,7 +3736,7 @@
         <v>15898845.68353655</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3849,7 +3769,7 @@
         <v>15896837.14623655</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3882,7 +3802,7 @@
         <v>15896983.33044707</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3915,7 +3835,7 @@
         <v>15884983.33044707</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3948,7 +3868,7 @@
         <v>15887073.30644707</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3981,7 +3901,7 @@
         <v>15877431.30644707</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4014,7 +3934,7 @@
         <v>15812431.30644707</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4047,7 +3967,7 @@
         <v>15812431.30644707</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4080,7 +4000,7 @@
         <v>15811858.28844707</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4113,7 +4033,7 @@
         <v>15810339.67004707</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4146,7 +4066,7 @@
         <v>15810135.56864707</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4179,7 +4099,7 @@
         <v>15810135.56864707</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4212,7 +4132,7 @@
         <v>15813005.70374707</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4245,7 +4165,7 @@
         <v>15813005.70374707</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4278,7 +4198,7 @@
         <v>15813005.70374707</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4311,7 +4231,7 @@
         <v>15853284.75244707</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4344,7 +4264,7 @@
         <v>15853284.75244707</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4377,7 +4297,7 @@
         <v>15853284.75244707</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4410,7 +4330,7 @@
         <v>15802823.92654707</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4443,7 +4363,7 @@
         <v>15812823.92654707</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4971,7 +4891,7 @@
         <v>15853772.45790593</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5048,6 +4968,6 @@
       <c r="M138" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest XEM.xlsx
+++ b/BackTest/2020-01-15 BackTest XEM.xlsx
@@ -601,7 +601,7 @@
         <v>-108643.81708467</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -634,7 +634,7 @@
         <v>-109283.53308467</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -2317,7 +2317,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2350,7 +2350,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2383,7 +2383,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2416,7 +2416,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2449,7 +2449,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2515,7 +2515,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2548,7 +2548,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3505,7 +3505,7 @@
         <v>15903663.73489841</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3538,7 +3538,7 @@
         <v>15903663.73489841</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3604,7 +3604,7 @@
         <v>15910017.36839841</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3637,7 +3637,7 @@
         <v>15909964.14649841</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3670,7 +3670,7 @@
         <v>15904483.17099841</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3703,7 +3703,7 @@
         <v>15898845.74173655</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3736,7 +3736,7 @@
         <v>15898845.68353655</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3769,7 +3769,7 @@
         <v>15896837.14623655</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3835,7 +3835,7 @@
         <v>15884983.33044707</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
         <v>15887073.30644707</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4957,7 +4957,7 @@
         <v>15854199.17960593</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>

--- a/BackTest/2020-01-15 BackTest XEM.xlsx
+++ b/BackTest/2020-01-15 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1390</v>
       </c>
       <c r="G2" t="n">
-        <v>-161499.7982085</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>1390</v>
       </c>
       <c r="G3" t="n">
-        <v>-160109.7982085</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>37.36</v>
       </c>
       <c r="I3" t="n">
         <v>37.36</v>
       </c>
-      <c r="J3" t="n">
-        <v>37.36</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>4686.822</v>
       </c>
       <c r="G4" t="n">
-        <v>-155422.9762085</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>37.51</v>
       </c>
       <c r="I4" t="n">
-        <v>37.51</v>
-      </c>
-      <c r="J4" t="n">
         <v>37.36</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>16404.9292</v>
       </c>
       <c r="G5" t="n">
-        <v>-139018.0470085</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
         <v>37.36</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,18 +581,15 @@
         <v>30374.22992383</v>
       </c>
       <c r="G6" t="n">
-        <v>-108643.81708467</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,18 +611,15 @@
         <v>639.716</v>
       </c>
       <c r="G7" t="n">
-        <v>-109283.53308467</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,18 +641,15 @@
         <v>377.8315</v>
       </c>
       <c r="G8" t="n">
-        <v>-109283.53308467</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -697,18 +671,15 @@
         <v>211.2323</v>
       </c>
       <c r="G9" t="n">
-        <v>-109283.53308467</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -730,18 +701,15 @@
         <v>42028.5499</v>
       </c>
       <c r="G10" t="n">
-        <v>-151312.0829846699</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,18 +731,15 @@
         <v>5873.5711817</v>
       </c>
       <c r="G11" t="n">
-        <v>-151312.0829846699</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -796,18 +761,15 @@
         <v>911.917</v>
       </c>
       <c r="G12" t="n">
-        <v>-152223.9999846699</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -829,18 +791,15 @@
         <v>761.648</v>
       </c>
       <c r="G13" t="n">
-        <v>-152985.6479846699</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -862,18 +821,15 @@
         <v>14904.9657</v>
       </c>
       <c r="G14" t="n">
-        <v>-138080.6822846699</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -895,18 +851,15 @@
         <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>-138060.6822846699</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -928,18 +881,15 @@
         <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>-138040.6822846699</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -961,18 +911,15 @@
         <v>302.3435</v>
       </c>
       <c r="G17" t="n">
-        <v>-137738.3387846699</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -994,18 +941,15 @@
         <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>-137698.3387846699</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1027,18 +971,15 @@
         <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>-137698.3387846699</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1060,18 +1001,15 @@
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>-137698.3387846699</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1093,18 +1031,15 @@
         <v>4658.1754</v>
       </c>
       <c r="G21" t="n">
-        <v>-133040.1633846699</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1126,18 +1061,15 @@
         <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>-133080.1633846699</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1159,18 +1091,15 @@
         <v>200040</v>
       </c>
       <c r="G23" t="n">
-        <v>66959.83661533007</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1192,18 +1121,15 @@
         <v>5673</v>
       </c>
       <c r="G24" t="n">
-        <v>61286.83661533007</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1225,18 +1151,15 @@
         <v>3509.0085</v>
       </c>
       <c r="G25" t="n">
-        <v>57777.82811533008</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1258,18 +1181,15 @@
         <v>3215</v>
       </c>
       <c r="G26" t="n">
-        <v>54562.82811533008</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1291,18 +1211,15 @@
         <v>832.6394</v>
       </c>
       <c r="G27" t="n">
-        <v>55395.46751533008</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1324,18 +1241,15 @@
         <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>55375.46751533008</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1357,18 +1271,15 @@
         <v>190000</v>
       </c>
       <c r="G29" t="n">
-        <v>245375.4675153301</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1390,18 +1301,15 @@
         <v>2567</v>
       </c>
       <c r="G30" t="n">
-        <v>242808.4675153301</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1423,18 +1331,15 @@
         <v>15771189.8884</v>
       </c>
       <c r="G31" t="n">
-        <v>16013998.35591533</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1456,18 +1361,15 @@
         <v>1180.2032</v>
       </c>
       <c r="G32" t="n">
-        <v>16013998.35591533</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1489,18 +1391,15 @@
         <v>180043.0916</v>
       </c>
       <c r="G33" t="n">
-        <v>15833955.26431533</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1522,18 +1421,15 @@
         <v>345.9153</v>
       </c>
       <c r="G34" t="n">
-        <v>15834301.17961533</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1555,18 +1451,15 @@
         <v>1442.5608</v>
       </c>
       <c r="G35" t="n">
-        <v>15835743.74041533</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1588,18 +1481,15 @@
         <v>956.6361000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>15834787.10431533</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1621,18 +1511,15 @@
         <v>1697.648</v>
       </c>
       <c r="G37" t="n">
-        <v>15836484.75231533</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1654,18 +1541,15 @@
         <v>4231.0912</v>
       </c>
       <c r="G38" t="n">
-        <v>15832253.66111533</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1687,18 +1571,15 @@
         <v>117.28688308</v>
       </c>
       <c r="G39" t="n">
-        <v>15832370.94799841</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1720,18 +1601,15 @@
         <v>13812.9817</v>
       </c>
       <c r="G40" t="n">
-        <v>15846183.92969841</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1753,18 +1631,15 @@
         <v>9813.917100000001</v>
       </c>
       <c r="G41" t="n">
-        <v>15846183.92969841</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1786,18 +1661,15 @@
         <v>9330.617099999999</v>
       </c>
       <c r="G42" t="n">
-        <v>15855514.54679841</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1819,18 +1691,15 @@
         <v>981.3694</v>
       </c>
       <c r="G43" t="n">
-        <v>15856495.91619841</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1852,18 +1721,15 @@
         <v>16989</v>
       </c>
       <c r="G44" t="n">
-        <v>15839506.91619841</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1885,18 +1751,15 @@
         <v>540.45</v>
       </c>
       <c r="G45" t="n">
-        <v>15838966.46619841</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1918,18 +1781,15 @@
         <v>5069.9808</v>
       </c>
       <c r="G46" t="n">
-        <v>15833896.48539841</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1951,18 +1811,15 @@
         <v>211.3976</v>
       </c>
       <c r="G47" t="n">
-        <v>15834107.88299841</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1984,18 +1841,15 @@
         <v>21265.0598</v>
       </c>
       <c r="G48" t="n">
-        <v>15855372.94279841</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2017,18 +1871,15 @@
         <v>721.173</v>
       </c>
       <c r="G49" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2050,18 +1901,15 @@
         <v>4173.702</v>
       </c>
       <c r="G50" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2083,18 +1931,15 @@
         <v>3214</v>
       </c>
       <c r="G51" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2116,18 +1961,15 @@
         <v>3300</v>
       </c>
       <c r="G52" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2149,18 +1991,15 @@
         <v>454.6239</v>
       </c>
       <c r="G53" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2182,18 +2021,15 @@
         <v>3214</v>
       </c>
       <c r="G54" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2215,18 +2051,15 @@
         <v>3214</v>
       </c>
       <c r="G55" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2248,18 +2081,15 @@
         <v>3300</v>
       </c>
       <c r="G56" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2281,18 +2111,15 @@
         <v>5330</v>
       </c>
       <c r="G57" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2314,18 +2141,15 @@
         <v>322</v>
       </c>
       <c r="G58" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2347,18 +2171,15 @@
         <v>5786.0679</v>
       </c>
       <c r="G59" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2380,18 +2201,15 @@
         <v>342.9016</v>
       </c>
       <c r="G60" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2413,18 +2231,15 @@
         <v>2786.2801</v>
       </c>
       <c r="G61" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2446,18 +2261,15 @@
         <v>3214</v>
       </c>
       <c r="G62" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2479,18 +2291,15 @@
         <v>15446</v>
       </c>
       <c r="G63" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2512,18 +2321,15 @@
         <v>1542.5319</v>
       </c>
       <c r="G64" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2545,18 +2351,15 @@
         <v>7280.325</v>
       </c>
       <c r="G65" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2578,18 +2381,15 @@
         <v>92043.35309999999</v>
       </c>
       <c r="G66" t="n">
-        <v>15854651.76979841</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2611,18 +2411,15 @@
         <v>2901.2576</v>
       </c>
       <c r="G67" t="n">
-        <v>15851750.51219841</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2644,18 +2441,15 @@
         <v>270</v>
       </c>
       <c r="G68" t="n">
-        <v>15852020.51219841</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2677,18 +2471,15 @@
         <v>20000.1635</v>
       </c>
       <c r="G69" t="n">
-        <v>15832020.34869841</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2710,18 +2501,15 @@
         <v>696.0078</v>
       </c>
       <c r="G70" t="n">
-        <v>15832716.35649841</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2743,18 +2531,15 @@
         <v>12412.8686</v>
       </c>
       <c r="G71" t="n">
-        <v>15845129.22509841</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2776,18 +2561,15 @@
         <v>7587.1314</v>
       </c>
       <c r="G72" t="n">
-        <v>15845129.22509841</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2809,18 +2591,15 @@
         <v>850.095</v>
       </c>
       <c r="G73" t="n">
-        <v>15844279.13009841</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2842,18 +2621,15 @@
         <v>2153.5281</v>
       </c>
       <c r="G74" t="n">
-        <v>15844279.13009841</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2875,18 +2651,15 @@
         <v>1675.429</v>
       </c>
       <c r="G75" t="n">
-        <v>15845954.55909841</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2908,18 +2681,15 @@
         <v>12000</v>
       </c>
       <c r="G76" t="n">
-        <v>15857954.55909841</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2941,18 +2711,15 @@
         <v>30.0542</v>
       </c>
       <c r="G77" t="n">
-        <v>15857984.61329841</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2974,18 +2741,15 @@
         <v>1441.1103</v>
       </c>
       <c r="G78" t="n">
-        <v>15856543.50299841</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3007,18 +2771,15 @@
         <v>207.3897</v>
       </c>
       <c r="G79" t="n">
-        <v>15856543.50299841</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3040,18 +2801,15 @@
         <v>9645</v>
       </c>
       <c r="G80" t="n">
-        <v>15846898.50299841</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3073,18 +2831,15 @@
         <v>3214</v>
       </c>
       <c r="G81" t="n">
-        <v>15850112.50299841</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3106,18 +2861,15 @@
         <v>8549.936799999999</v>
       </c>
       <c r="G82" t="n">
-        <v>15850112.50299841</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3139,18 +2891,15 @@
         <v>240.1574</v>
       </c>
       <c r="G83" t="n">
-        <v>15850352.66039841</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3172,18 +2921,15 @@
         <v>2758.3282</v>
       </c>
       <c r="G84" t="n">
-        <v>15850352.66039841</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3205,18 +2951,15 @@
         <v>572.151</v>
       </c>
       <c r="G85" t="n">
-        <v>15849780.50939841</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3238,18 +2981,15 @@
         <v>3175.1562</v>
       </c>
       <c r="G86" t="n">
-        <v>15852955.66559841</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3271,18 +3011,15 @@
         <v>666.5</v>
       </c>
       <c r="G87" t="n">
-        <v>15852289.16559841</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3304,18 +3041,15 @@
         <v>2883.1619</v>
       </c>
       <c r="G88" t="n">
-        <v>15855172.32749841</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3337,18 +3071,15 @@
         <v>3696.4625</v>
       </c>
       <c r="G89" t="n">
-        <v>15851475.86499841</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3370,18 +3101,15 @@
         <v>2624.6719</v>
       </c>
       <c r="G90" t="n">
-        <v>15854100.53689841</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3403,18 +3131,15 @@
         <v>619.572</v>
       </c>
       <c r="G91" t="n">
-        <v>15853480.96489841</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3436,18 +3161,15 @@
         <v>619.572</v>
       </c>
       <c r="G92" t="n">
-        <v>15854100.53689841</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3469,18 +3191,15 @@
         <v>45611.4348</v>
       </c>
       <c r="G93" t="n">
-        <v>15899711.97169841</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3502,18 +3221,15 @@
         <v>3951.7632</v>
       </c>
       <c r="G94" t="n">
-        <v>15903663.73489841</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3535,18 +3251,15 @@
         <v>4821</v>
       </c>
       <c r="G95" t="n">
-        <v>15903663.73489841</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3568,18 +3281,15 @@
         <v>5909.2649</v>
       </c>
       <c r="G96" t="n">
-        <v>15909572.99979841</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3601,18 +3311,15 @@
         <v>444.3686</v>
       </c>
       <c r="G97" t="n">
-        <v>15910017.36839841</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3634,18 +3341,15 @@
         <v>53.2219</v>
       </c>
       <c r="G98" t="n">
-        <v>15909964.14649841</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3667,18 +3371,15 @@
         <v>5480.9755</v>
       </c>
       <c r="G99" t="n">
-        <v>15904483.17099841</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3700,18 +3401,15 @@
         <v>5637.42926186</v>
       </c>
       <c r="G100" t="n">
-        <v>15898845.74173655</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3733,18 +3431,15 @@
         <v>0.0582</v>
       </c>
       <c r="G101" t="n">
-        <v>15898845.68353655</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3766,18 +3461,15 @@
         <v>2008.5373</v>
       </c>
       <c r="G102" t="n">
-        <v>15896837.14623655</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3799,18 +3491,15 @@
         <v>146.18421052</v>
       </c>
       <c r="G103" t="n">
-        <v>15896983.33044707</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3832,18 +3521,15 @@
         <v>12000</v>
       </c>
       <c r="G104" t="n">
-        <v>15884983.33044707</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3865,18 +3551,15 @@
         <v>2089.976</v>
       </c>
       <c r="G105" t="n">
-        <v>15887073.30644707</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3898,18 +3581,15 @@
         <v>9642</v>
       </c>
       <c r="G106" t="n">
-        <v>15877431.30644707</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3931,18 +3611,15 @@
         <v>65000</v>
       </c>
       <c r="G107" t="n">
-        <v>15812431.30644707</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3964,18 +3641,15 @@
         <v>594.9616</v>
       </c>
       <c r="G108" t="n">
-        <v>15812431.30644707</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3997,18 +3671,15 @@
         <v>573.018</v>
       </c>
       <c r="G109" t="n">
-        <v>15811858.28844707</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4030,18 +3701,15 @@
         <v>1518.6184</v>
       </c>
       <c r="G110" t="n">
-        <v>15810339.67004707</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4063,18 +3731,15 @@
         <v>204.1014</v>
       </c>
       <c r="G111" t="n">
-        <v>15810135.56864707</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4096,18 +3761,15 @@
         <v>256.2857</v>
       </c>
       <c r="G112" t="n">
-        <v>15810135.56864707</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4129,18 +3791,15 @@
         <v>2870.1351</v>
       </c>
       <c r="G113" t="n">
-        <v>15813005.70374707</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4162,18 +3821,15 @@
         <v>4243.3505</v>
       </c>
       <c r="G114" t="n">
-        <v>15813005.70374707</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4195,18 +3851,15 @@
         <v>5914.8649</v>
       </c>
       <c r="G115" t="n">
-        <v>15813005.70374707</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4228,18 +3881,15 @@
         <v>40279.0487</v>
       </c>
       <c r="G116" t="n">
-        <v>15853284.75244707</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4261,18 +3911,15 @@
         <v>6428</v>
       </c>
       <c r="G117" t="n">
-        <v>15853284.75244707</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4294,18 +3941,15 @@
         <v>3776.193</v>
       </c>
       <c r="G118" t="n">
-        <v>15853284.75244707</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4327,18 +3971,15 @@
         <v>50460.8259</v>
       </c>
       <c r="G119" t="n">
-        <v>15802823.92654707</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4360,18 +4001,15 @@
         <v>10000</v>
       </c>
       <c r="G120" t="n">
-        <v>15812823.92654707</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4393,18 +4031,15 @@
         <v>21000</v>
       </c>
       <c r="G121" t="n">
-        <v>15833823.92654707</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4426,18 +4061,15 @@
         <v>799.332</v>
       </c>
       <c r="G122" t="n">
-        <v>15833024.59454707</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4459,18 +4091,15 @@
         <v>10453.18450468</v>
       </c>
       <c r="G123" t="n">
-        <v>15843477.77905175</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4492,18 +4121,15 @@
         <v>4742.285</v>
       </c>
       <c r="G124" t="n">
-        <v>15843477.77905175</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4525,18 +4151,15 @@
         <v>247.8483</v>
       </c>
       <c r="G125" t="n">
-        <v>15843229.93075175</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4558,18 +4181,15 @@
         <v>8647.78084582</v>
       </c>
       <c r="G126" t="n">
-        <v>15843229.93075175</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4591,18 +4211,15 @@
         <v>768.25684582</v>
       </c>
       <c r="G127" t="n">
-        <v>15842461.67390593</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4624,18 +4241,15 @@
         <v>897.9640000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>15841563.70990593</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4657,18 +4271,15 @@
         <v>2069.7427</v>
       </c>
       <c r="G129" t="n">
-        <v>15839493.96720593</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4690,18 +4301,15 @@
         <v>64241.3538</v>
       </c>
       <c r="G130" t="n">
-        <v>15839493.96720593</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4723,18 +4331,15 @@
         <v>4181.4697</v>
       </c>
       <c r="G131" t="n">
-        <v>15839493.96720593</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4756,18 +4361,15 @@
         <v>11710.5827</v>
       </c>
       <c r="G132" t="n">
-        <v>15851204.54990593</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4789,18 +4391,15 @@
         <v>646.092</v>
       </c>
       <c r="G133" t="n">
-        <v>15850558.45790593</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4822,18 +4421,15 @@
         <v>514.492</v>
       </c>
       <c r="G134" t="n">
-        <v>15850558.45790593</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4855,18 +4451,15 @@
         <v>824.201</v>
       </c>
       <c r="G135" t="n">
-        <v>15850558.45790593</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4888,18 +4481,15 @@
         <v>3214</v>
       </c>
       <c r="G136" t="n">
-        <v>15853772.45790593</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4921,18 +4511,15 @@
         <v>15113.83</v>
       </c>
       <c r="G137" t="n">
-        <v>15853772.45790593</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4954,18 +4541,15 @@
         <v>426.7217</v>
       </c>
       <c r="G138" t="n">
-        <v>15854199.17960593</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
